--- a/YAML-CREATION/UPS/ups.xlsx
+++ b/YAML-CREATION/UPS/ups.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="257">
   <si>
     <t>dbo.section</t>
   </si>
@@ -188,9 +188,6 @@
     <t>IN-BLR-BCPWK</t>
   </si>
   <si>
-    <t>true=ON false=OFF</t>
-  </si>
-  <si>
     <t>1.4.1</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
   </si>
   <si>
     <t>GATEWAY/PASSTHROUGH</t>
-  </si>
-  <si>
-    <t>true= ACTIVE false= INACTIVE</t>
   </si>
   <si>
     <t>HLI-31</t>
@@ -809,7 +803,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="10"/>
@@ -1542,19 +1536,19 @@
     </row>
     <row r="2" spans="1:22" ht="15">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1566,30 +1560,30 @@
         <v>10</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J2" t="s">
         <v>52</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
         <v>39</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" s="15"/>
       <c r="S2" s="13"/>
       <c r="T2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -1675,9 +1669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G841"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
@@ -1717,3160 +1711,3156 @@
     </row>
     <row r="2" spans="1:7" ht="13.5" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" thickBot="1">
       <c r="A3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>53</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D3" s="16"/>
       <c r="E3" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>58</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D4" s="12"/>
       <c r="E4" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" thickBot="1">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.5" thickBot="1">
       <c r="A8" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" thickBot="1">
       <c r="A11" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1">
       <c r="A12" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.5" thickBot="1">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.5" thickBot="1">
       <c r="A15" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.5" thickBot="1">
       <c r="A16" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" thickBot="1">
       <c r="A17" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" thickBot="1">
       <c r="A18" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.5" thickBot="1">
       <c r="A19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.5" thickBot="1">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.5" thickBot="1">
       <c r="A21" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.5" thickBot="1">
       <c r="A22" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5" thickBot="1">
       <c r="A23" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.5" thickBot="1">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.5" thickBot="1">
       <c r="A26" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5" thickBot="1">
       <c r="A27" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.5" thickBot="1">
       <c r="A29" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13.5" thickBot="1">
       <c r="A30" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.5" thickBot="1">
       <c r="A32" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.5" thickBot="1">
       <c r="A33" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.5" thickBot="1">
       <c r="A34" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" thickBot="1">
       <c r="A35" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.5" thickBot="1">
       <c r="A36" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" thickBot="1">
       <c r="A37" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.5" thickBot="1">
       <c r="A38" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" thickBot="1">
       <c r="A39" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.5" thickBot="1">
       <c r="A40" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" thickBot="1">
       <c r="A41" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" thickBot="1">
       <c r="A42" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" thickBot="1">
       <c r="A43" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.5" thickBot="1">
       <c r="A44" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="13.5" thickBot="1">
       <c r="A45" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.5" thickBot="1">
       <c r="A46" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" thickBot="1">
       <c r="A47" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.5" thickBot="1">
       <c r="A48" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.5" thickBot="1">
       <c r="A49" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.5" thickBot="1">
       <c r="A50" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" thickBot="1">
       <c r="A51" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.5" thickBot="1">
       <c r="A52" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.5" thickBot="1">
       <c r="A53" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="13.5" thickBot="1">
       <c r="A54" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.5" thickBot="1">
       <c r="A55" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="13.5" thickBot="1">
       <c r="A56" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="13.5" thickBot="1">
       <c r="A57" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="13.5" thickBot="1">
       <c r="A58" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.5" thickBot="1">
       <c r="A59" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="13.5" thickBot="1">
       <c r="A60" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="13.5" thickBot="1">
       <c r="A61" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="13.5" thickBot="1">
       <c r="A62" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="13.5" thickBot="1">
       <c r="A63" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="13.5" thickBot="1">
       <c r="A64" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="13.5" thickBot="1">
       <c r="A65" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13.5" thickBot="1">
       <c r="A66" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="13.5" thickBot="1">
       <c r="A67" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="13.5" thickBot="1">
       <c r="A68" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="13.5" thickBot="1">
       <c r="A69" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="13.5" thickBot="1">
       <c r="A70" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.5" thickBot="1">
       <c r="A71" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.5" thickBot="1">
       <c r="A72" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="13.5" thickBot="1">
       <c r="A73" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13.5" thickBot="1">
       <c r="A74" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" thickBot="1">
       <c r="A75" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="13.5" thickBot="1">
       <c r="A76" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="13.5" thickBot="1">
       <c r="A77" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13.5" thickBot="1">
       <c r="A78" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" thickBot="1">
       <c r="A79" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="13.5" thickBot="1">
       <c r="A80" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="13.5" thickBot="1">
       <c r="A81" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="13.5" thickBot="1">
       <c r="A82" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="13.5" thickBot="1">
       <c r="A83" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="13.5" thickBot="1">
       <c r="A84" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13.5" thickBot="1">
       <c r="A85" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="13.5" thickBot="1">
       <c r="A86" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="13.5" thickBot="1">
       <c r="A87" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="13.5" thickBot="1">
       <c r="A88" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="13.5" thickBot="1">
       <c r="A89" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="13.5" thickBot="1">
       <c r="A90" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="13.5" thickBot="1">
       <c r="A91" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="13.5" thickBot="1">
       <c r="A92" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="13.5" thickBot="1">
       <c r="A93" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="13.5" thickBot="1">
       <c r="A94" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="13.5" thickBot="1">
       <c r="A95" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="13.5" thickBot="1">
       <c r="A96" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="13.5" thickBot="1">
       <c r="A97" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="13.5" thickBot="1">
       <c r="A98" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="13.5" thickBot="1">
       <c r="A99" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="13.5" thickBot="1">
       <c r="A100" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="13.5" thickBot="1">
       <c r="A101" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="13.5" thickBot="1">
       <c r="A102" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="13.5" thickBot="1">
       <c r="A103" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="13.5" thickBot="1">
       <c r="A104" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="13.5" thickBot="1">
       <c r="A105" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="13.5" thickBot="1">
       <c r="A106" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="13.5" thickBot="1">
       <c r="A107" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="13.5" thickBot="1">
       <c r="A108" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="13.5" thickBot="1">
       <c r="A109" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="13.5" thickBot="1">
       <c r="A110" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="13.5" thickBot="1">
       <c r="A111" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="13.5" thickBot="1">
       <c r="A112" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="13.5" thickBot="1">
       <c r="A113" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="13.5" thickBot="1">
       <c r="A114" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="13.5" thickBot="1">
       <c r="A115" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="13.5" thickBot="1">
       <c r="A116" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="13.5" thickBot="1">
       <c r="A117" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="13.5" thickBot="1">
       <c r="A118" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="13.5" thickBot="1">
       <c r="A119" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="13.5" thickBot="1">
       <c r="A120" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="13.5" thickBot="1">
       <c r="A121" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="13.5" thickBot="1">
       <c r="A122" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="13.5" thickBot="1">
       <c r="A123" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="13.5" thickBot="1">
       <c r="A124" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="13.5" thickBot="1">
       <c r="A125" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="13.5" thickBot="1">
       <c r="A126" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13.5" thickBot="1">
       <c r="A127" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="13.5" thickBot="1">
       <c r="A128" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="13.5" thickBot="1">
       <c r="A129" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="13.5" thickBot="1">
       <c r="A130" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="13.5" thickBot="1">
       <c r="A131" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13.5" thickBot="1">
       <c r="A132" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="13.5" thickBot="1">
       <c r="A133" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="13.5" thickBot="1">
       <c r="A134" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="13.5" thickBot="1">
       <c r="A135" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="13.5" thickBot="1">
       <c r="A136" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="13.5" thickBot="1">
       <c r="A137" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="13.5" thickBot="1">
       <c r="A138" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="13.5" thickBot="1">
       <c r="A139" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="13.5" thickBot="1">
       <c r="A140" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="13.5" thickBot="1">
       <c r="A141" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="13.5" thickBot="1">
       <c r="A142" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13.5" thickBot="1">
       <c r="A143" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13.5" thickBot="1">
       <c r="A144" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="13.5" thickBot="1">
       <c r="A145" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="13.5" thickBot="1">
       <c r="A146" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="13.5" thickBot="1">
       <c r="A147" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="13.5" thickBot="1">
       <c r="A148" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="13.5" thickBot="1">
       <c r="A149" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="13.5" thickBot="1">
       <c r="A150" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="13.5" thickBot="1">
       <c r="A151" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="13.5" thickBot="1">
       <c r="A152" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="13.5" thickBot="1">
       <c r="A153" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="13.5" thickBot="1">
       <c r="A154" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="13.5" thickBot="1">
       <c r="A155" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="13.5" thickBot="1">
       <c r="A156" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="13.5" thickBot="1">
       <c r="A157" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="13.5" thickBot="1">
       <c r="A158" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B158" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="13.5" thickBot="1">
       <c r="A159" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="13.5" thickBot="1">
       <c r="A160" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="13.5" thickBot="1">
       <c r="A161" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="13.5" thickBot="1">
       <c r="A162" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="13.5" thickBot="1">
       <c r="A163" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="13.5" thickBot="1">
       <c r="A164" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="13.5" thickBot="1">
       <c r="A165" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B165" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="13.5" thickBot="1">
       <c r="A166" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B166" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="13.5" thickBot="1">
       <c r="A167" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="13.5" thickBot="1">
       <c r="A168" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="13.5" thickBot="1">
       <c r="A169" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="13.5" thickBot="1">
       <c r="A170" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="13.5" thickBot="1">
       <c r="A171" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="13.5" thickBot="1">
       <c r="A172" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="13.5" thickBot="1">
       <c r="A173" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="13.5" thickBot="1">
       <c r="A174" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B174" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13.5" thickBot="1">
       <c r="A175" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="13.5" thickBot="1">
       <c r="A176" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B176" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E176" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="13.5" thickBot="1">
       <c r="A177" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="13.5" thickBot="1">
       <c r="A178" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="13.5" thickBot="1">
       <c r="A179" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="13.5" thickBot="1">
       <c r="A180" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="13.5" thickBot="1">
       <c r="A181" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="13.5" thickBot="1">
       <c r="A182" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="13.5" thickBot="1">
       <c r="A183" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="13.5" thickBot="1">
       <c r="A184" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="13.5" thickBot="1">
       <c r="A185" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="13.5" thickBot="1">
       <c r="A186" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E186" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C187" s="6"/>
       <c r="E187" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="188" spans="1:6">
